--- a/hw3/master.xlsx
+++ b/hw3/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ultrabook\Documents\GitHub\CIS 625 - Supercomputing Backup\HPC-Cluster-Projects\hw3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA62BDA9-877D-469E-B287-BAC705EA51AF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565EA523-C36A-4193-830D-7EB5840836A8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{54D73ADE-0E5A-432D-9741-9BCE7BBA0E32}"/>
   </bookViews>
@@ -229,7 +229,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>1</c:v>
+            <c:v>1 Task Per Node</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -278,7 +278,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2</c:v>
+            <c:v>2 Tasks Per Node</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -327,7 +327,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>3</c:v>
+            <c:v>4 Tasks Per Node</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -376,7 +376,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>4</c:v>
+            <c:v>8 Tasks Per Node</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -425,7 +425,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>5</c:v>
+            <c:v>16 Tasks Per Node</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -520,6 +520,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43175143647584596"/>
+              <c:y val="0.75426037091898146"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -653,7 +661,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t>time (ms)</a:t>
+                  <a:t>time (s)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -829,25 +837,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>10,000</a:t>
+              <a:t>Serial</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Lines</a:t>
+              <a:t> Performance</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.42250124831956981"/>
-          <c:y val="1.6368878903674222E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -855,20 +855,30 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.14040381537673643"/>
-          <c:y val="0.13822891034077417"/>
-          <c:w val="0.81731976185903588"/>
-          <c:h val="0.54915244091031534"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -876,31 +886,40 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>1</c:v>
+            <c:v>1K Data Size</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$11:$F$11</c:f>
+              <c:f>Sheet1!$B$34:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>363.63299999999998</c:v>
+                  <c:v>34.250999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.584</c:v>
+                  <c:v>17.792999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.673000000000002</c:v>
+                  <c:v>11.042999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.378</c:v>
+                  <c:v>10.954000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5859999999999999</c:v>
+                  <c:v>8.9120000000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -908,7 +927,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-C91F-4C39-81DF-AA794D36F2E5}"/>
+              <c16:uniqueId val="{00000000-154F-4AF5-B0B0-E835FA2BA365}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -916,31 +935,40 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2</c:v>
+            <c:v>10K Data Size</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$F$12</c:f>
+              <c:f>Sheet1!$C$34:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>189.976</c:v>
+                  <c:v>371.423</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.575000000000003</c:v>
+                  <c:v>190.00200000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52.219000000000001</c:v>
+                  <c:v>132.73400000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.89</c:v>
+                  <c:v>101.991</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.677</c:v>
+                  <c:v>84.816000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -948,7 +976,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-C91F-4C39-81DF-AA794D36F2E5}"/>
+              <c16:uniqueId val="{00000001-154F-4AF5-B0B0-E835FA2BA365}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -956,31 +984,40 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>3</c:v>
+            <c:v>100K Data Size</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$F$13</c:f>
+              <c:f>Sheet1!$D$34:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>134.994</c:v>
+                  <c:v>4044.7779999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71.754000000000005</c:v>
+                  <c:v>2027.3209999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.148000000000003</c:v>
+                  <c:v>1353.0429999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.145</c:v>
+                  <c:v>1021.668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.653</c:v>
+                  <c:v>814.00199999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -988,7 +1025,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-C91F-4C39-81DF-AA794D36F2E5}"/>
+              <c16:uniqueId val="{00000002-154F-4AF5-B0B0-E835FA2BA365}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -996,31 +1033,40 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>4</c:v>
+            <c:v>1000K Data Size</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$F$14</c:f>
+              <c:f>Sheet1!$E$34:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>102.39400000000001</c:v>
+                  <c:v>43315.434000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54.040999999999997</c:v>
+                  <c:v>34491.112000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.434999999999999</c:v>
+                  <c:v>27865.764999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.315999999999999</c:v>
+                  <c:v>26675.887999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3290000000000002</c:v>
+                  <c:v>24208.341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1028,47 +1074,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000017-C91F-4C39-81DF-AA794D36F2E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>5</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$15:$F$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>83.32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44.52</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>26.170999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14.64</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.5819999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000018-C91F-4C39-81DF-AA794D36F2E5}"/>
+              <c16:uniqueId val="{00000003-154F-4AF5-B0B0-E835FA2BA365}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1081,11 +1087,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="473079272"/>
-        <c:axId val="473080584"/>
+        <c:axId val="426755264"/>
+        <c:axId val="426754280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="473079272"/>
+        <c:axId val="426755264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1118,7 +1124,6 @@
                   <a:rPr lang="en-US" baseline="0"/>
                   <a:t> of Nodes</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1130,6 +1135,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1168,7 +1193,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473080584"/>
+        <c:crossAx val="426754280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1176,7 +1201,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="473080584"/>
+        <c:axId val="426754280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1196,20 +1221,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1231,11 +1242,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Run</a:t>
+                  <a:t>Runtime</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t>time (ms)</a:t>
+                  <a:t> (s)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1249,6 +1260,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1281,10 +1312,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473079272"/>
+        <c:crossAx val="426755264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="5000"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -1322,9 +1361,19 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
@@ -1379,7 +1428,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>100,000</a:t>
+              <a:t>10,000</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -1446,7 +1495,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>1</c:v>
+            <c:v>1 Task Per Node</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1462,24 +1511,24 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$19:$F$19</c:f>
+              <c:f>Sheet1!$B$11:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4038.527</c:v>
+                  <c:v>363.63299999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2010.251</c:v>
+                  <c:v>200.584</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1012.865</c:v>
+                  <c:v>98.673000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>506.88099999999997</c:v>
+                  <c:v>50.378</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256.31599999999997</c:v>
+                  <c:v>2.5859999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1487,7 +1536,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1A45-44DD-85C7-5124951AD4B9}"/>
+              <c16:uniqueId val="{00000000-777A-4074-8F02-E320B397096E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1495,7 +1544,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2</c:v>
+            <c:v>2 Tasks Per Node</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1511,24 +1560,24 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$20:$F$20</c:f>
+              <c:f>Sheet1!$B$12:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2026.3240000000001</c:v>
+                  <c:v>189.976</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1011.146</c:v>
+                  <c:v>98.575000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>502.786</c:v>
+                  <c:v>52.219000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>260.38400000000001</c:v>
+                  <c:v>27.89</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150.34200000000001</c:v>
+                  <c:v>2.677</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1536,7 +1585,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1A45-44DD-85C7-5124951AD4B9}"/>
+              <c16:uniqueId val="{00000001-777A-4074-8F02-E320B397096E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1544,7 +1593,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>3</c:v>
+            <c:v>4 Tasks Per Node</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1560,24 +1609,24 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$21:$F$21</c:f>
+              <c:f>Sheet1!$B$13:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1349.7819999999999</c:v>
+                  <c:v>134.994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>676.32</c:v>
+                  <c:v>71.754000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>350.52600000000001</c:v>
+                  <c:v>38.148000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>185.00700000000001</c:v>
+                  <c:v>20.145</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>101.955</c:v>
+                  <c:v>3.653</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1585,7 +1634,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1A45-44DD-85C7-5124951AD4B9}"/>
+              <c16:uniqueId val="{00000002-777A-4074-8F02-E320B397096E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1593,7 +1642,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>4</c:v>
+            <c:v>8 Tasks Per Node</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1609,24 +1658,24 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$22:$F$22</c:f>
+              <c:f>Sheet1!$B$14:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1013.82</c:v>
+                  <c:v>102.39400000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>539.56799999999998</c:v>
+                  <c:v>54.040999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>270.69299999999998</c:v>
+                  <c:v>28.434999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>137.18700000000001</c:v>
+                  <c:v>16.315999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82.162000000000006</c:v>
+                  <c:v>3.3290000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1634,7 +1683,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-1A45-44DD-85C7-5124951AD4B9}"/>
+              <c16:uniqueId val="{00000003-777A-4074-8F02-E320B397096E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1642,7 +1691,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>5</c:v>
+            <c:v>16 Tasks Per Node</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1658,24 +1707,24 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$F$23</c:f>
+              <c:f>Sheet1!$B$15:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>812.15800000000002</c:v>
+                  <c:v>83.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>425.48700000000002</c:v>
+                  <c:v>44.52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>231.261</c:v>
+                  <c:v>26.170999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>118.42700000000001</c:v>
+                  <c:v>14.64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.043999999999997</c:v>
+                  <c:v>4.5819999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1683,7 +1732,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1A45-44DD-85C7-5124951AD4B9}"/>
+              <c16:uniqueId val="{00000004-777A-4074-8F02-E320B397096E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1737,6 +1786,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43175143647584596"/>
+              <c:y val="0.75426037091898146"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1870,7 +1927,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t>time (ms)</a:t>
+                  <a:t>time (s)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -2046,7 +2103,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>1,000,000</a:t>
+              <a:t>100,000</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -2100,7 +2157,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15341194545803727"/>
+          <c:x val="0.14040381537673643"/>
           <c:y val="0.13822891034077417"/>
           <c:w val="0.81731976185903588"/>
           <c:h val="0.54915244091031534"/>
@@ -2113,7 +2170,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>1</c:v>
+            <c:v>1 Task Per Node</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2129,24 +2186,24 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$27:$F$27</c:f>
+              <c:f>Sheet1!$B$19:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>43251.644</c:v>
+                  <c:v>4038.527</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20098.822</c:v>
+                  <c:v>2010.251</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10632.064</c:v>
+                  <c:v>1012.865</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5065.9480000000003</c:v>
+                  <c:v>506.88099999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2549.0390000000002</c:v>
+                  <c:v>256.31599999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2154,7 +2211,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1BE7-42C8-870A-46F378040892}"/>
+              <c16:uniqueId val="{00000000-58BD-4D19-B659-49D7E734F8BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2162,7 +2219,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2</c:v>
+            <c:v>2 Tasks Per Node</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2178,24 +2235,24 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$28:$F$28</c:f>
+              <c:f>Sheet1!$B$20:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>34541.794000000002</c:v>
+                  <c:v>2026.3240000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10445.626</c:v>
+                  <c:v>1011.146</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5164.4669999999996</c:v>
+                  <c:v>502.786</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2577.1060000000002</c:v>
+                  <c:v>260.38400000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1336.2809999999999</c:v>
+                  <c:v>150.34200000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2203,7 +2260,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1BE7-42C8-870A-46F378040892}"/>
+              <c16:uniqueId val="{00000001-58BD-4D19-B659-49D7E734F8BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2211,7 +2268,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>3</c:v>
+            <c:v>4 Tasks Per Node</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2227,24 +2284,24 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$29:$F$29</c:f>
+              <c:f>Sheet1!$B$21:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>27865.764999999999</c:v>
+                  <c:v>1349.7819999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6807.558</c:v>
+                  <c:v>676.32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3435.9960000000001</c:v>
+                  <c:v>350.52600000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1741.924</c:v>
+                  <c:v>185.00700000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>923.76</c:v>
+                  <c:v>101.955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2252,7 +2309,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1BE7-42C8-870A-46F378040892}"/>
+              <c16:uniqueId val="{00000002-58BD-4D19-B659-49D7E734F8BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2260,7 +2317,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>4</c:v>
+            <c:v>8 Tasks Per Node</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2276,24 +2333,24 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$30:$F$30</c:f>
+              <c:f>Sheet1!$B$22:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>26231.634999999998</c:v>
+                  <c:v>1013.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5112.6459999999997</c:v>
+                  <c:v>539.56799999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2670.576</c:v>
+                  <c:v>270.69299999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1371.2670000000001</c:v>
+                  <c:v>137.18700000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16185.308000000001</c:v>
+                  <c:v>82.162000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2301,7 +2358,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-1BE7-42C8-870A-46F378040892}"/>
+              <c16:uniqueId val="{00000003-58BD-4D19-B659-49D7E734F8BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2309,7 +2366,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>5</c:v>
+            <c:v>16 Tasks Per Node</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2325,24 +2382,24 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$31:$F$31</c:f>
+              <c:f>Sheet1!$B$23:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>24226.826000000001</c:v>
+                  <c:v>812.15800000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3882.1489999999999</c:v>
+                  <c:v>425.48700000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2151.58</c:v>
+                  <c:v>231.261</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1152.4970000000001</c:v>
+                  <c:v>118.42700000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>617.30999999999995</c:v>
+                  <c:v>65.043999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2350,7 +2407,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1BE7-42C8-870A-46F378040892}"/>
+              <c16:uniqueId val="{00000004-58BD-4D19-B659-49D7E734F8BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2404,6 +2461,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43175143647584596"/>
+              <c:y val="0.75426037091898146"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2537,7 +2602,682 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t>time (ms)</a:t>
+                  <a:t>time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="473079272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1,000,000</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Lines</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42250124831956981"/>
+          <c:y val="1.6368878903674222E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14040381537673643"/>
+          <c:y val="0.13822891034077417"/>
+          <c:w val="0.81731976185903588"/>
+          <c:h val="0.54915244091031534"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 Task Per Node</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>43251.644</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20098.822</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10632.064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5065.9480000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2549.0390000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E52B-4929-B2E7-A0B5FC3DE755}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2 Tasks Per Node</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$28:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>34541.794000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10445.626</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5164.4669999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2577.1060000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1336.2809999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E52B-4929-B2E7-A0B5FC3DE755}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4 Tasks Per Node</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$29:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>27865.764999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6807.558</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3435.9960000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1741.924</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>923.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E52B-4929-B2E7-A0B5FC3DE755}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>8 Tasks Per Node</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$30:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>26231.634999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5112.6459999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2670.576</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1371.2670000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16185.308000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E52B-4929-B2E7-A0B5FC3DE755}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>16 Tasks Per Node</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$31:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>24226.826000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3882.1489999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2151.58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1152.4970000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>617.30999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E52B-4929-B2E7-A0B5FC3DE755}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="473079272"/>
+        <c:axId val="473080584"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="473079272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Nodes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43175143647584596"/>
+              <c:y val="0.75426037091898146"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="473080584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="473080584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Run</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>time (s)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -2798,6 +3538,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3831,6 +4651,1038 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4351,15 +6203,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4386,29 +6238,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90AE9A88-D022-4D5C-997C-41C2564DAB54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E1BE9D0-9E4B-44D7-BDB8-E83F50478D0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4424,23 +6274,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C143D4-76F9-43D1-9CF6-AC9FBC16354B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F13EF742-1435-4E85-B07A-8C1C18E2DB43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4462,23 +6312,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BCD4741-6E99-4A7E-9FFA-5B16DBDD4E9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF2CD1BB-D186-4F25-A6A4-0A5061202F4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4493,6 +6343,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA79360E-9C1B-4E5D-92A1-A4855A1C28DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4798,17 +6686,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7065273-2ABD-4F83-99DE-553B55FDB192}">
-  <dimension ref="A2:F33"/>
+  <dimension ref="A2:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5291,9 +7177,79 @@
         <v>617.30999999999995</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>34.250999999999998</v>
+      </c>
+      <c r="C34" s="1">
+        <v>371.423</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4044.7779999999998</v>
+      </c>
+      <c r="E34" s="1">
+        <v>43315.434000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>17.792999999999999</v>
+      </c>
+      <c r="C35" s="1">
+        <v>190.00200000000001</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2027.3209999999999</v>
+      </c>
+      <c r="E35" s="1">
+        <v>34491.112000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>11.042999999999999</v>
+      </c>
+      <c r="C36" s="1">
+        <v>132.73400000000001</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1353.0429999999999</v>
+      </c>
+      <c r="E36" s="1">
+        <v>27865.764999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>10.954000000000001</v>
+      </c>
+      <c r="C37" s="1">
+        <v>101.991</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1021.668</v>
+      </c>
+      <c r="E37" s="1">
+        <v>26675.887999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>8.9120000000000008</v>
+      </c>
+      <c r="C38" s="1">
+        <v>84.816000000000003</v>
+      </c>
+      <c r="D38" s="1">
+        <v>814.00199999999995</v>
+      </c>
+      <c r="E38" s="1">
+        <v>24208.341</v>
       </c>
     </row>
   </sheetData>

--- a/hw3/master.xlsx
+++ b/hw3/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ultrabook\Documents\GitHub\CIS 625 - Supercomputing Backup\HPC-Cluster-Projects\hw3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565EA523-C36A-4193-830D-7EB5840836A8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E82895-1B80-4C7B-A942-B33A216F789A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{54D73ADE-0E5A-432D-9741-9BCE7BBA0E32}"/>
   </bookViews>
@@ -1365,12 +1365,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3418,6 +3413,494 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Serial</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Performance (Zoomed In)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1K Data Size</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$34:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>34.250999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.792999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.042999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.954000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9120000000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CF87-45C6-8347-65AF9A20625D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>10K Data Size</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$34:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>371.423</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190.00200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132.73400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101.991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.816000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CF87-45C6-8347-65AF9A20625D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="426755264"/>
+        <c:axId val="426754280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="426755264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="426754280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="426754280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="426755264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="50"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3618,6 +4101,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5683,6 +6206,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6239,15 +7278,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>371296</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>71977</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>390346</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>67215</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6381,6 +7420,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>80873</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>62901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>99923</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>58139</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3C671EC-648E-4E36-BD5A-F7230239BB44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6688,8 +7765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7065273-2ABD-4F83-99DE-553B55FDB192}">
   <dimension ref="A2:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="Q50" sqref="Q50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
